--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Index</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Factor</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -68,76 +65,37 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Equities</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Renewables</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>&lt;=</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Metals</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
     <t>SPY</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>QQQ</t>
   </si>
   <si>
     <t>&gt;</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>All Assets</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>&lt;</t>
@@ -181,13 +139,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +162,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -210,22 +181,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,111 +515,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,346 +637,346 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.2</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -92,13 +92,10 @@
     <t>QQQ</t>
   </si>
   <si>
-    <t>&gt;</t>
+    <t>=</t>
   </si>
   <si>
     <t>All Assets</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
   <si>
     <t>Housing</t>
@@ -522,18 +519,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -542,7 +539,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -569,7 +566,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -578,7 +575,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -587,7 +584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -596,7 +593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -605,19 +602,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -941,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5">
         <v>0.2</v>
@@ -965,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Index</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>QQQ</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>All Assets</t>
@@ -519,18 +516,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -539,7 +536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -566,7 +563,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -575,7 +572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -584,7 +581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -593,7 +590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -602,19 +599,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -886,10 +883,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
@@ -906,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -962,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -133,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -177,19 +183,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -807,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -918,7 +924,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -945,7 +951,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -133,19 +133,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -181,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -190,12 +184,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -515,9 +503,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -637,20 +625,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,7 +700,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -739,7 +727,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -766,7 +754,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -793,7 +781,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -820,7 +808,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -847,7 +835,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -874,7 +862,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -901,7 +889,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -925,7 +913,7 @@
       <c r="K10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -943,7 +931,7 @@
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.2</v>
       </c>
       <c r="H11" s="2"/>
@@ -952,7 +940,7 @@
       <c r="K11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -970,7 +958,7 @@
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>0.2</v>
       </c>
       <c r="H12" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -929,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3">
         <v>0.2</v>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Index</t>
   </si>
@@ -68,31 +68,31 @@
     <t>Equities</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>All Assets</t>
+  </si>
+  <si>
     <t>Renewables</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>All Assets</t>
   </si>
   <si>
     <t>Housing</t>
@@ -539,7 +539,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -560,7 +560,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -569,7 +569,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -578,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -587,7 +587,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -619,7 +619,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -729,7 +729,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -744,10 +744,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -756,7 +756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -768,13 +768,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -783,7 +783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -810,40 +810,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -856,7 +856,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -864,48 +864,48 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -914,7 +914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -926,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -939,33 +939,6 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="3">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -932,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="3">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Index</t>
   </si>
@@ -80,7 +80,19 @@
     <t>Metals</t>
   </si>
   <si>
-    <t>Assets</t>
+    <t>All Assets</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>STIP</t>
   </si>
   <si>
     <t>SPY</t>
@@ -89,40 +101,25 @@
     <t>QQQ</t>
   </si>
   <si>
-    <t>All Assets</t>
+    <t>ICLN</t>
   </si>
   <si>
     <t>Renewables</t>
   </si>
   <si>
+    <t>IUES.L</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>AAAU</t>
+  </si>
+  <si>
+    <t>NPF.NZ</t>
+  </si>
+  <si>
     <t>Housing</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t>STIP</t>
-  </si>
-  <si>
-    <t>ICLN</t>
-  </si>
-  <si>
-    <t>IUES.L</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>AAAU</t>
-  </si>
-  <si>
-    <t>NPF.NZ</t>
   </si>
   <si>
     <t>VNQ</t>
@@ -510,18 +507,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -530,7 +527,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -539,7 +536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -548,7 +545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -557,16 +554,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -575,7 +572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -584,7 +581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -593,19 +590,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -619,7 +616,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -720,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -810,7 +807,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -819,125 +816,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Index</t>
   </si>
@@ -68,46 +68,43 @@
     <t>Equities</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>All Assets</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>STIP</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>ICLN</t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t>IUES.L</t>
+  </si>
+  <si>
     <t>Energy</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>All Assets</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t>STIP</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>ICLN</t>
-  </si>
-  <si>
-    <t>Renewables</t>
-  </si>
-  <si>
-    <t>IUES.L</t>
   </si>
   <si>
     <t>XLV</t>
@@ -507,18 +504,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -527,7 +524,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -536,7 +533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -545,7 +542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -554,55 +551,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -616,7 +613,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -726,7 +723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -741,10 +738,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -753,7 +750,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -765,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -780,54 +777,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Index</t>
   </si>
@@ -72,6 +72,20 @@
   </si>
   <si>
     <t>Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry
+</t>
+  </si>
+  <si>
+    <t>Energies</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
   <si>
     <t>All Assets</t>
@@ -169,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -178,6 +192,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -497,25 +517,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -524,7 +544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -533,7 +553,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -542,7 +562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -551,25 +571,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -578,7 +598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -587,19 +607,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -613,23 +633,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -775,9 +795,9 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1">
-        <v>9</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -785,19 +805,46 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.01</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.3</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -82,7 +82,7 @@
 </t>
   </si>
   <si>
-    <t>Energies</t>
+    <t>Energy</t>
   </si>
   <si>
     <t>&lt;=</t>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>IUES.L</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
   <si>
     <t>XLV</t>
@@ -583,13 +580,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -598,7 +595,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -607,19 +604,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2"/>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Index</t>
   </si>
@@ -72,14 +72,6 @@
   </si>
   <si>
     <t>Metals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry
-</t>
   </si>
   <si>
     <t>Energy</t>
@@ -521,18 +513,18 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -541,7 +533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -550,7 +542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -559,7 +551,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -568,25 +560,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -595,7 +587,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -604,19 +596,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -800,16 +792,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="5">
         <v>0.3</v>
@@ -827,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -804,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Index</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>Housing</t>
+  </si>
+  <si>
+    <t>IJH</t>
+  </si>
+  <si>
+    <t>MidCap</t>
+  </si>
+  <si>
+    <t>MCHI</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>NZ50GR</t>
+  </si>
+  <si>
+    <t>NZ</t>
   </si>
   <si>
     <t>VNQ</t>
@@ -130,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +159,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -183,10 +207,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -500,9 +524,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -608,9 +632,36 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,7 +675,7 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -134,7 +134,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>NZ50GR</t>
+    <t>FNZ</t>
   </si>
   <si>
     <t>NZ</t>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +159,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -196,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -205,12 +199,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -530,9 +518,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -679,17 +667,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -836,7 +824,7 @@
       <c r="K5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -854,7 +842,7 @@
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.31</v>
       </c>
       <c r="H6" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>FNZ</t>
-  </si>
-  <si>
-    <t>NZ</t>
   </si>
   <si>
     <t>VNQ</t>
@@ -512,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -638,18 +632,9 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -193,6 +193,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -508,13 +514,13 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -646,23 +652,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -835,9 +841,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>9</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -848,16 +854,39 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.01</v>
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.1</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Index</t>
   </si>
@@ -53,67 +53,64 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Classes</t>
+    <t>All Assets</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Asset</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
     <t>Bonds</t>
   </si>
   <si>
-    <t>&gt;=</t>
+    <t>STIP</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
   <si>
     <t>Equities</t>
   </si>
   <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>ICLN</t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t>IUES.L</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
+    <t>AAAU</t>
+  </si>
+  <si>
     <t>Metals</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>All Assets</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t>STIP</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>ICLN</t>
-  </si>
-  <si>
-    <t>Renewables</t>
-  </si>
-  <si>
-    <t>IUES.L</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>AAAU</t>
   </si>
   <si>
     <t>NPF.NZ</t>
@@ -525,120 +522,120 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -652,7 +649,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -706,9 +703,9 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -716,17 +713,13 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.2</v>
+      <c r="G2" s="5">
+        <v>0.1</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -735,7 +728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -743,150 +736,19 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -139,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +150,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -192,10 +198,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>VNQ</t>
   </si>
 </sst>
 </file>
@@ -139,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +147,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -187,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -196,12 +187,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -515,15 +500,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -635,15 +620,6 @@
         <v>37</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,21 +633,21 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -710,7 +686,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -724,7 +700,7 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>0.1</v>
       </c>
       <c r="H2" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Index</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>VNQ</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -620,6 +623,15 @@
         <v>37</v>
       </c>
       <c r="C12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -505,7 +505,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -645,7 +645,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Index</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
   <si>
     <t>VNQ</t>
@@ -503,9 +509,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -629,9 +635,18 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,7 +660,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Holdings"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
   <si>
     <t>Index</t>
   </si>
@@ -50,6 +50,78 @@
     <t>Factor</t>
   </si>
   <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonds </t>
+  </si>
+  <si>
+    <t>HYG</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>GOVT</t>
+  </si>
+  <si>
+    <t>SHV</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>ITE</t>
+  </si>
+  <si>
+    <t>MUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_generating_bonds </t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>XME</t>
+  </si>
+  <si>
+    <t>UNG</t>
+  </si>
+  <si>
+    <t>DBB</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>BNO</t>
+  </si>
+  <si>
+    <t>XOP</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>cash_equivalents</t>
+  </si>
+  <si>
+    <t>TFLO</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -90,78 +162,6 @@
   </si>
   <si>
     <t>ACWI</t>
-  </si>
-  <si>
-    <t>LQD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonds </t>
-  </si>
-  <si>
-    <t>HYG</t>
-  </si>
-  <si>
-    <t>BND</t>
-  </si>
-  <si>
-    <t>GOVT</t>
-  </si>
-  <si>
-    <t>SHV</t>
-  </si>
-  <si>
-    <t>TIP</t>
-  </si>
-  <si>
-    <t>ITE</t>
-  </si>
-  <si>
-    <t>MUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_generating_bonds </t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>XME</t>
-  </si>
-  <si>
-    <t>UNG</t>
-  </si>
-  <si>
-    <t>DBB</t>
-  </si>
-  <si>
-    <t>GSG</t>
-  </si>
-  <si>
-    <t>BNO</t>
-  </si>
-  <si>
-    <t>XOP</t>
-  </si>
-  <si>
-    <t>BIL</t>
-  </si>
-  <si>
-    <t>cash_equivalents</t>
-  </si>
-  <si>
-    <t>TFLO</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="2"/>
     </font>
@@ -223,33 +223,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -556,364 +571,364 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>26</v>
+      <c r="A21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>34</v>
+      <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>34</v>
+      <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>34</v>
+      <c r="A24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>34</v>
+      <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
+      <c r="A26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>34</v>
+      <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
+      <c r="A28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
+      <c r="A29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
+      <c r="A30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>34</v>
+      <c r="A31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
+      <c r="A32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>36</v>
+      <c r="A33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>36</v>
+      <c r="A34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
+      <c r="A35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>36</v>
+      <c r="A36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>36</v>
+      <c r="A37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>36</v>
+      <c r="A38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
+      <c r="A39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>36</v>
+      <c r="A40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>36</v>
+      <c r="A41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>47</v>
+      <c r="A42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>47</v>
+      <c r="A43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>47</v>
+      <c r="A44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -926,23 +941,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -964,7 +979,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -981,43 +996,600 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
   <si>
     <t>Index</t>
   </si>
@@ -122,6 +122,33 @@
     <t>TFLO</t>
   </si>
   <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>Equities</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>IJR</t>
+  </si>
+  <si>
+    <t>IVE</t>
+  </si>
+  <si>
+    <t>ACWI</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -134,34 +161,7 @@
     <t>SPY</t>
   </si>
   <si>
-    <t>Equities</t>
-  </si>
-  <si>
     <t>EFA</t>
-  </si>
-  <si>
-    <t>VTI</t>
-  </si>
-  <si>
-    <t>IWM</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>EEM</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>IJR</t>
-  </si>
-  <si>
-    <t>IVE</t>
-  </si>
-  <si>
-    <t>ACWI</t>
   </si>
 </sst>
 </file>
@@ -581,354 +581,354 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
+      <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
+      <c r="A8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +941,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,40 +1556,241 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>35</v>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>35</v>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>ACWI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Asset</t>
@@ -169,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +190,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -237,14 +240,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -255,13 +252,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -575,21 +566,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -597,339 +588,215 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>44</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>44</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>44</v>
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>44</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>44</v>
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>44</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>44</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>44</v>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,17 +814,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1758,34 +1625,26 @@
       <c r="K47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -675,128 +675,252 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>Index</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>EFA</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +193,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -226,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -240,9 +237,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -252,7 +246,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -566,15 +566,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -611,315 +611,315 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
+      <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
+      <c r="A29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
+      <c r="A30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
+      <c r="A31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>22</v>
+      <c r="A32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>33</v>
+      <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>33</v>
+      <c r="A36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
+      <c r="A37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
+      <c r="A38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
+      <c r="A39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
+      <c r="A40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
+      <c r="A41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
+      <c r="A42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>36</v>
+      <c r="A43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>36</v>
+      <c r="A44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -938,17 +938,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -997,7 +997,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1014,7 +1014,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1031,7 +1031,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1065,7 +1065,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1082,7 +1082,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1099,7 +1099,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1116,7 +1116,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1133,7 +1133,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1150,7 +1150,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1167,7 +1167,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1184,7 +1184,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1201,7 +1201,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1218,7 +1218,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1235,7 +1235,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1252,7 +1252,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1269,7 +1269,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1286,7 +1286,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1303,7 +1303,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1320,7 +1320,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1337,7 +1337,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1354,7 +1354,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1371,7 +1371,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1388,7 +1388,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1422,7 +1422,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1439,7 +1439,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1456,7 +1456,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1473,7 +1473,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1490,7 +1490,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1507,7 +1507,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1524,7 +1524,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1541,7 +1541,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1558,7 +1558,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1575,7 +1575,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1592,7 +1592,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1609,7 +1609,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1626,7 +1626,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1643,7 +1643,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1660,7 +1660,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1677,72 +1677,72 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="5"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5"/>
+      <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="5"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1755,7 +1755,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1768,7 +1768,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>EFA</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -223,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -247,12 +244,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -566,8 +557,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -611,315 +602,315 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>48</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>48</v>
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>48</v>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>48</v>
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>48</v>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>48</v>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>48</v>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>48</v>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>48</v>
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>48</v>
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>48</v>
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>48</v>
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>48</v>
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>48</v>
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>48</v>
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>48</v>
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>48</v>
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>48</v>
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>48</v>
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>48</v>
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>48</v>
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>48</v>
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>48</v>
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>48</v>
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>48</v>
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>48</v>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>48</v>
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>48</v>
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>48</v>
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>48</v>
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>48</v>
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>48</v>
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -551,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -819,15 +819,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -835,7 +835,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>33</v>
@@ -843,15 +843,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -859,7 +859,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>36</v>
@@ -867,7 +867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>36</v>
@@ -875,7 +875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>36</v>
@@ -883,7 +883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>36</v>
@@ -891,7 +891,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
@@ -899,17 +899,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -551,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -603,305 +603,105 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
   <si>
     <t>Index</t>
   </si>
@@ -551,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -659,49 +659,113 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>Index</t>
   </si>
@@ -158,7 +158,10 @@
     <t>SPY</t>
   </si>
   <si>
-    <t>EFA</t>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -244,6 +247,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -557,8 +566,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -582,191 +591,191 @@
         <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
+      <c r="A15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
+      <c r="A19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
+      <c r="A20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
+      <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
+      <c r="A23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Index</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>TLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonds </t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>SHY</t>
   </si>
   <si>
     <t/>
@@ -591,191 +600,191 @@
         <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>48</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
   <si>
     <t>Index</t>
   </si>
@@ -153,24 +153,6 @@
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonds </t>
-  </si>
-  <si>
-    <t>Com</t>
-  </si>
-  <si>
-    <t>SHY</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -232,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -256,12 +238,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -569,14 +545,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -589,202 +565,330 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>51</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>51</v>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>51</v>
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>51</v>
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>51</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>51</v>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>51</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>51</v>
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>51</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>51</v>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>51</v>
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>51</v>
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>51</v>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>51</v>
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>51</v>
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>51</v>
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>51</v>
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>51</v>
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -238,6 +241,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -545,14 +551,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -884,10 +890,18 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -163,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -243,7 +249,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -551,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -579,7 +585,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -587,321 +593,73 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
+      <c r="A12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -163,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +187,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -247,9 +241,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -557,14 +548,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -577,7 +568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -585,15 +576,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
@@ -601,15 +592,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -617,15 +608,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
@@ -633,33 +624,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -548,7 +548,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -630,19 +630,11 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>Index</t>
   </si>
@@ -149,13 +149,7 @@
     <t>ACWI</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>SPY</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -217,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -240,7 +234,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -548,27 +545,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>45</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -576,66 +573,346 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
   <si>
     <t>Index</t>
   </si>
@@ -149,7 +149,10 @@
     <t>ACWI</t>
   </si>
   <si>
-    <t/>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -234,10 +237,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -545,27 +545,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -573,7 +573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -581,7 +581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -589,7 +589,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -597,7 +597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -605,7 +605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -613,7 +613,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -621,7 +621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -629,7 +629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -637,15 +637,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -661,7 +661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>20</v>
@@ -669,7 +669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
@@ -677,7 +677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -685,7 +685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>20</v>
@@ -693,7 +693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
@@ -701,7 +701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -709,7 +709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -717,15 +717,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -733,7 +733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -741,7 +741,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -749,7 +749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>22</v>
@@ -757,7 +757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
@@ -765,7 +765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>22</v>
@@ -773,7 +773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>22</v>
@@ -781,7 +781,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -789,7 +789,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>22</v>
@@ -797,15 +797,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
@@ -813,7 +813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>33</v>
@@ -821,31 +821,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -853,7 +853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>36</v>
@@ -861,7 +861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>36</v>
@@ -869,7 +869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>36</v>
@@ -877,43 +877,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>44</v>
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Index</t>
   </si>
@@ -153,6 +153,93 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ Inv Grade Corporate Bond ETF</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ High Yield Corporate Bond ETF</t>
+  </si>
+  <si>
+    <t>Vanguard Total Bond Market Index Fund ETF</t>
+  </si>
+  <si>
+    <t>iShares US Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iShares Short Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>iShares TIPS Bond ETF</t>
+  </si>
+  <si>
+    <t>iShares US Aerospace &amp; Defense ETF</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>iShares National Muni Bond ETF</t>
+  </si>
+  <si>
+    <t>SPDR Gold Trust</t>
+  </si>
+  <si>
+    <t>United States Oil ETF</t>
+  </si>
+  <si>
+    <t>Invesco DB Agriculture Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iShares Silver Trust</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States Natural Gas Fund, LP</t>
+  </si>
+  <si>
+    <t>Invesco DB Base Metals Fund</t>
+  </si>
+  <si>
+    <t>iShares S&amp;P GSCI Commodity-Indexed Trust ETF</t>
+  </si>
+  <si>
+    <t>United States Brent Oil Fund LP</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Oil &amp; Gas Exploration &amp; Production ETF</t>
+  </si>
+  <si>
+    <t>SPDR Bloomberg 1-3 Month T-Bill ETF</t>
+  </si>
+  <si>
+    <t>iShares Treasury Floating Rate Bond ETF</t>
+  </si>
+  <si>
+    <t>Vanguard Total Stock Market Index Fund ETF</t>
+  </si>
+  <si>
+    <t>iShares Russell 2000 ETF</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>iShares MSCI Emerging Markets ETF</t>
+  </si>
+  <si>
+    <t>SPDR Dow Jones Industrial Average ETF Trust</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P Small-Cap ETF</t>
+  </si>
+  <si>
+    <t>iShares S&amp;P 500 Value ETF</t>
+  </si>
+  <si>
+    <t>iShares MSCI ACWI ETF mid cap from many countries</t>
   </si>
 </sst>
 </file>
@@ -160,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +271,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -214,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -236,6 +329,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,29 +641,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -576,14 +677,20 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -592,14 +699,20 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -608,15 +721,21 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -624,288 +743,262 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="9"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -330,10 +330,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
   <si>
     <t>Index</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Asset</t>
+  </si>
+  <si>
+    <t>Full_name</t>
   </si>
   <si>
     <t>Industry</t>
@@ -656,9 +659,11 @@
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -666,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -677,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -688,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -699,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -710,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -721,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -732,10 +737,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -743,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -754,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -765,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -776,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -787,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -798,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -809,7 +814,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
@@ -820,7 +825,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
@@ -831,7 +836,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
@@ -842,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
@@ -853,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
@@ -864,7 +869,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
@@ -875,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
@@ -886,7 +891,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>33</v>
@@ -897,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
@@ -908,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>36</v>
@@ -919,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
@@ -930,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
@@ -941,7 +946,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>36</v>
@@ -952,7 +957,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -963,7 +968,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>36</v>
@@ -974,7 +979,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>Index</t>
   </si>
@@ -170,7 +170,7 @@
     <t>iShares US Treasury Bond ETF</t>
   </si>
   <si>
-    <t xml:space="preserve"> iShares Short Treasury Bond ETF</t>
+    <t>iShares Short Treasury Bond ETF</t>
   </si>
   <si>
     <t>iShares TIPS Bond ETF</t>
@@ -194,13 +194,13 @@
     <t>Invesco DB Agriculture Fund</t>
   </si>
   <si>
-    <t xml:space="preserve"> iShares Silver Trust</t>
+    <t>iShares Silver Trust</t>
   </si>
   <si>
     <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
   </si>
   <si>
-    <t xml:space="preserve"> United States Natural Gas Fund, LP</t>
+    <t>United States Natural Gas Fund, LP</t>
   </si>
   <si>
     <t>Invesco DB Base Metals Fund</t>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>iShares MSCI ACWI ETF mid cap from many countries</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +280,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -334,9 +334,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -650,12 +647,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="46.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -986,24 +983,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t>Index</t>
   </si>
@@ -249,6 +249,27 @@
   </si>
   <si>
     <t>ES</t>
+  </si>
+  <si>
+    <t>IYH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares US Healthcare ETF
+iShares US Healthcare ETF
+</t>
+  </si>
+  <si>
+    <t>VNQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard Real Estate Index Fund ETF
+</t>
+  </si>
+  <si>
+    <t>FNZ.NZ</t>
+  </si>
+  <si>
+    <t>Smartshares NZ Top 50</t>
   </si>
 </sst>
 </file>
@@ -641,14 +662,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -752,261 +773,268 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>75</v>
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>77</v>
+      <c r="A31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="8"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -149,6 +149,9 @@
     <t>ACWI</t>
   </si>
   <si>
+    <t>United States Natural Gas Fund, LP</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
@@ -198,9 +201,6 @@
   </si>
   <si>
     <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
-  </si>
-  <si>
-    <t>United States Natural Gas Fund, LP</t>
   </si>
   <si>
     <t>Invesco DB Base Metals Fund</t>
@@ -662,7 +662,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -675,13 +675,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -755,10 +755,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -777,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -788,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -821,183 +821,183 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>75</v>
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>77</v>
+      <c r="A30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1016,23 +1016,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1811,9 +1800,15 @@
       <c r="K43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>Index</t>
   </si>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -355,6 +355,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -662,15 +665,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1015,13 +1018,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>Index</t>
   </si>
@@ -264,6 +264,12 @@
   <si>
     <t xml:space="preserve">Vanguard Real Estate Index Fund ETF
 </t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>iShares Global Timber &amp; Forestry ETF</t>
   </si>
   <si>
     <t>FNZ.NZ</t>
@@ -277,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +307,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -331,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -358,6 +370,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -665,15 +680,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -995,7 +1010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.5">
       <c r="A30" s="8" t="s">
         <v>78</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
@@ -1018,24 +1033,35 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="83">
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Full_name</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
   <si>
     <t>Set</t>
@@ -53,193 +53,175 @@
     <t>LQD</t>
   </si>
   <si>
+    <t>iShares iBoxx $ Inv Grade Corporate Bond ETF</t>
+  </si>
+  <si>
     <t xml:space="preserve">bonds </t>
   </si>
   <si>
     <t>HYG</t>
   </si>
   <si>
+    <t>iShares iBoxx $ High Yield Corporate Bond ETF</t>
+  </si>
+  <si>
     <t>BND</t>
   </si>
   <si>
+    <t>Vanguard Total Bond Market Index Fund ETF</t>
+  </si>
+  <si>
     <t>GOVT</t>
   </si>
   <si>
+    <t>iShares US Treasury Bond ETF</t>
+  </si>
+  <si>
     <t>SHV</t>
   </si>
   <si>
+    <t>iShares Short Treasury Bond ETF</t>
+  </si>
+  <si>
     <t>TIP</t>
   </si>
   <si>
+    <t>iShares TIPS Bond ETF</t>
+  </si>
+  <si>
     <t>ITE</t>
   </si>
   <si>
+    <t>iShares US Aerospace &amp; Defense ETF</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
     <t>MUB</t>
   </si>
   <si>
-    <t xml:space="preserve">income_generating_bonds </t>
+    <t>iShares National Muni Bond ETF</t>
   </si>
   <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>SPDR Gold Trust</t>
+  </si>
+  <si>
     <t>commodities</t>
   </si>
   <si>
     <t>USO</t>
   </si>
   <si>
+    <t>United States Oil ETF</t>
+  </si>
+  <si>
     <t>DBA</t>
   </si>
   <si>
+    <t>Invesco DB Agriculture Fund</t>
+  </si>
+  <si>
     <t>SLV</t>
   </si>
   <si>
+    <t>iShares Silver Trust</t>
+  </si>
+  <si>
     <t>XME</t>
   </si>
   <si>
-    <t>UNG</t>
+    <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
   </si>
   <si>
     <t>DBB</t>
   </si>
   <si>
+    <t>Invesco DB Base Metals Fund</t>
+  </si>
+  <si>
     <t>GSG</t>
   </si>
   <si>
+    <t>iShares S&amp;P GSCI Commodity-Indexed Trust ETF</t>
+  </si>
+  <si>
     <t>BNO</t>
   </si>
   <si>
+    <t>United States Brent Oil Fund LP</t>
+  </si>
+  <si>
     <t>XOP</t>
   </si>
   <si>
+    <t>SPDR S&amp;P Oil &amp; Gas Exploration &amp; Production ETF</t>
+  </si>
+  <si>
     <t>BIL</t>
   </si>
   <si>
+    <t>SPDR Bloomberg 1-3 Month T-Bill ETF</t>
+  </si>
+  <si>
     <t>cash_equivalents</t>
   </si>
   <si>
     <t>TFLO</t>
   </si>
   <si>
+    <t>iShares Treasury Floating Rate Bond ETF</t>
+  </si>
+  <si>
     <t>VTI</t>
   </si>
   <si>
+    <t>Vanguard Total Stock Market Index Fund ETF</t>
+  </si>
+  <si>
     <t>Equities</t>
   </si>
   <si>
     <t>IWM</t>
   </si>
   <si>
+    <t>iShares Russell 2000 ETF</t>
+  </si>
+  <si>
     <t>QQQ</t>
   </si>
   <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
     <t>EEM</t>
   </si>
   <si>
+    <t>iShares MSCI Emerging Markets ETF</t>
+  </si>
+  <si>
     <t>DIA</t>
   </si>
   <si>
+    <t>SPDR Dow Jones Industrial Average ETF Trust</t>
+  </si>
+  <si>
     <t>IJR</t>
   </si>
   <si>
+    <t>iShares Core S&amp;P Small-Cap ETF</t>
+  </si>
+  <si>
     <t>IVE</t>
   </si>
   <si>
+    <t>iShares S&amp;P 500 Value ETF</t>
+  </si>
+  <si>
     <t>ACWI</t>
-  </si>
-  <si>
-    <t>United States Natural Gas Fund, LP</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Full_name</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>iShares iBoxx $ Inv Grade Corporate Bond ETF</t>
-  </si>
-  <si>
-    <t>iShares iBoxx $ High Yield Corporate Bond ETF</t>
-  </si>
-  <si>
-    <t>Vanguard Total Bond Market Index Fund ETF</t>
-  </si>
-  <si>
-    <t>iShares US Treasury Bond ETF</t>
-  </si>
-  <si>
-    <t>iShares Short Treasury Bond ETF</t>
-  </si>
-  <si>
-    <t>iShares TIPS Bond ETF</t>
-  </si>
-  <si>
-    <t>iShares US Aerospace &amp; Defense ETF</t>
-  </si>
-  <si>
-    <t>defense</t>
-  </si>
-  <si>
-    <t>iShares National Muni Bond ETF</t>
-  </si>
-  <si>
-    <t>SPDR Gold Trust</t>
-  </si>
-  <si>
-    <t>United States Oil ETF</t>
-  </si>
-  <si>
-    <t>Invesco DB Agriculture Fund</t>
-  </si>
-  <si>
-    <t>iShares Silver Trust</t>
-  </si>
-  <si>
-    <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
-  </si>
-  <si>
-    <t>Invesco DB Base Metals Fund</t>
-  </si>
-  <si>
-    <t>iShares S&amp;P GSCI Commodity-Indexed Trust ETF</t>
-  </si>
-  <si>
-    <t>United States Brent Oil Fund LP</t>
-  </si>
-  <si>
-    <t>SPDR S&amp;P Oil &amp; Gas Exploration &amp; Production ETF</t>
-  </si>
-  <si>
-    <t>SPDR Bloomberg 1-3 Month T-Bill ETF</t>
-  </si>
-  <si>
-    <t>iShares Treasury Floating Rate Bond ETF</t>
-  </si>
-  <si>
-    <t>Vanguard Total Stock Market Index Fund ETF</t>
-  </si>
-  <si>
-    <t>iShares Russell 2000 ETF</t>
-  </si>
-  <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>iShares MSCI Emerging Markets ETF</t>
-  </si>
-  <si>
-    <t>SPDR Dow Jones Industrial Average ETF Trust</t>
-  </si>
-  <si>
-    <t>iShares Core S&amp;P Small-Cap ETF</t>
-  </si>
-  <si>
-    <t>iShares S&amp;P 500 Value ETF</t>
   </si>
   <si>
     <t>iShares MSCI ACWI ETF mid cap from many countries</t>
@@ -272,10 +254,19 @@
     <t>iShares Global Timber &amp; Forestry ETF</t>
   </si>
   <si>
+    <t>UNG</t>
+  </si>
+  <si>
+    <t>United States Natural Gas Fund, LP</t>
+  </si>
+  <si>
     <t>FNZ.NZ</t>
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -283,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +285,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -343,18 +340,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -366,14 +369,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -686,383 +701,383 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+      <c r="A4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
+      <c r="A8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="A10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
+      <c r="A11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
+      <c r="A12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
+      <c r="A13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
+      <c r="A14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
+      <c r="A15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
+      <c r="A16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
+      <c r="A17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
+      <c r="A18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
+      <c r="A19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
+      <c r="A20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
+      <c r="A22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
+      <c r="A23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
+      <c r="A24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
+      <c r="A25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
+      <c r="A26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
+      <c r="A27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>36</v>
+      <c r="A28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>36</v>
+      <c r="A29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.5">
-      <c r="A30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
+      <c r="A30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>36</v>
+      <c r="A31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
+      <c r="A32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>22</v>
+      <c r="A33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
+      <c r="A34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1081,17 +1096,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1113,7 +1128,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1130,794 +1145,860 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
+      <c r="A35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
+      <c r="A36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
+      <c r="A38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
+      <c r="A40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
+      <c r="A42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
+      <c r="A44" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>Asset</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -274,7 +271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +303,6 @@
       <name val="Courier New"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -371,24 +362,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -701,9 +674,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -719,10 +692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>
@@ -730,354 +703,354 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>82</v>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
+      <c r="A22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>82</v>
+      <c r="A23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>82</v>
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>82</v>
+      <c r="A25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>82</v>
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>82</v>
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>82</v>
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.5">
-      <c r="A30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>82</v>
+      <c r="A29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+      <c r="A30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
+      <c r="A31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>82</v>
+      <c r="A32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>82</v>
+      <c r="A33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>82</v>
+      <c r="A34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
